--- a/medicine/Pharmacie/Néomycine/Néomycine.xlsx
+++ b/medicine/Pharmacie/Néomycine/Néomycine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9omycine</t>
+          <t>Néomycine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La néomycine est un antibiotique aminoside proche de la gentamicine. On la trouve surtout dans divers médicaments topiques (locaux) tels des crèmes, pommades, collyres, à cause d'une très faible biodisponibilité orale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9omycine</t>
+          <t>Néomycine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La néomycine a été découverte en 1949 par le microbiologiste Selman Waksman. Elle est produite naturellement par la bactérie Streptomyces fradiae.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9omycine</t>
+          <t>Néomycine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Utilisation dans les organismes génétiquement modifiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gène de résistance à la néomycine, la neomycin phosphotransferase (npt), a été introduit dans de nombreux organismes génétiquement modifiés à des fins de marquage et de sélection des cellules génétiquement modifiées[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gène de résistance à la néomycine, la neomycin phosphotransferase (npt), a été introduit dans de nombreux organismes génétiquement modifiés à des fins de marquage et de sélection des cellules génétiquement modifiées.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9omycine</t>
+          <t>Néomycine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Code ATC</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>usage parentéral : J01GB05
 antiseptique intestinal : A07AA01
